--- a/Data/TravelCosts.xlsx
+++ b/Data/TravelCosts.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1C3478-C585-42AC-A24F-D3E872220D4B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,10 +25,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AmoutWithOutTax</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Tax</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -37,11 +32,15 @@
     <t>TransactionID</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>AmountWithOutTax</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -367,20 +366,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="14.6875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.3125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.0625" style="1"/>
+    <col min="5" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -388,13 +387,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">

--- a/Data/TravelCosts.xlsx
+++ b/Data/TravelCosts.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>AmountWithTax</t>
     <phoneticPr fontId="1"/>
@@ -370,7 +371,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -423,4 +424,64 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>3240</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3000</v>
+      </c>
+      <c r="C2" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>4320</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C3" s="1">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>